--- a/shipClassTests/testResults/sensedComp1.xlsx
+++ b/shipClassTests/testResults/sensedComp1.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adware\Desktop\KISS\shipClassTests\testResults\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6F30CA-5ED4-4EFA-A701-3A945202FC2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensed Comp1_HR History" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensed Comp1_HR" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Time Step</t>
   </si>
@@ -46,15 +27,12 @@
   <si>
     <t>Sensed State</t>
   </si>
-  <si>
-    <t>Data Validation Eqn</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,21 +69,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +113,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -177,7 +147,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -212,10 +181,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,20 +356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="1" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1">
+        <f>MODE(C[100, 0, 0, 3] : C[100, 0, 0, 3])</f>
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -413,11 +380,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>0</v>
       </c>
@@ -430,22 +394,1408 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <f>IF(AND(C2=1, D2=B2), 1, 0)</f>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>3</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FFFF0000"/>
-        <color rgb="FF92D050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/shipClassTests/testResults/sensedComp1.xlsx
+++ b/shipClassTests/testResults/sensedComp1.xlsx
@@ -362,13 +362,9 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="4" width="12.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <f>MODE(C[100, 0, 0, 3] : C[100, 0, 0, 3])</f>
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -414,13 +410,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -428,13 +424,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -442,13 +438,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -456,13 +452,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -470,13 +466,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -484,13 +480,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -498,13 +494,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -512,13 +508,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -526,13 +522,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -540,13 +536,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -554,13 +550,13 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -568,13 +564,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -582,13 +578,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -596,13 +592,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -610,13 +606,13 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -624,13 +620,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -638,13 +634,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -658,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -672,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -686,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -700,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -714,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -728,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -742,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -756,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -770,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -784,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -798,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -812,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -826,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -840,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -854,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -868,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -882,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -896,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -910,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -924,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -938,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -952,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -966,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -980,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -994,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1008,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1022,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1036,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1050,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1064,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1078,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1092,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1114,7 +1110,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1128,13 +1124,13 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1142,13 +1138,13 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1156,13 +1152,13 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1170,13 +1166,13 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1184,13 +1180,13 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1198,13 +1194,13 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1212,13 +1208,13 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1226,13 +1222,13 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1240,13 +1236,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1254,13 +1250,13 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1268,13 +1264,13 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1282,13 +1278,13 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1296,13 +1292,13 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1310,13 +1306,13 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1324,13 +1320,13 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1338,13 +1334,13 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1358,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1372,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1386,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1400,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1414,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1428,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="D76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1442,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1456,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="D78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1470,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="D79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1484,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="D80">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1498,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1512,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1526,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D83">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1540,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="D84">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1554,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1568,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1582,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1596,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="D88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1610,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1624,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1638,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1652,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1666,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1680,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1694,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="D95">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1708,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="D96">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1722,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1736,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="D98">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1750,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="D99">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1764,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="D100">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1778,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1792,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="D102">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/shipClassTests/testResults/sensedComp1.xlsx
+++ b/shipClassTests/testResults/sensedComp1.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensed Comp1_HR" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensed highRelSensors" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Time Step</t>
   </si>
@@ -25,7 +25,22 @@
     <t>Sensor 1</t>
   </si>
   <si>
+    <t>Sensor 2</t>
+  </si>
+  <si>
+    <t>Sensor 3</t>
+  </si>
+  <si>
+    <t>Sensor 4</t>
+  </si>
+  <si>
     <t>Sensed State</t>
+  </si>
+  <si>
+    <t>Are Sensors Working?</t>
+  </si>
+  <si>
+    <t>Did Sensed State Match Truth State?</t>
   </si>
 </sst>
 </file>
@@ -357,13 +372,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:I122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,41 +391,90 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>MODE(C2:F2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(AND(H2=1, A2=F2), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>MODE(C3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(AND(H3=1, A3=F3), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -418,36 +482,87 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>MODE(C4:F4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>IF(AND(H4=1, A4=F4), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>MODE(C5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>IF(AND(H5=1, A5=F5), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>MODE(C6:F6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>IF(AND(H6=1, A6=F6), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>5</v>
       </c>
@@ -455,13 +570,30 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>MODE(C7:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>IF(AND(H7=1, A7=F7), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>6</v>
       </c>
@@ -469,13 +601,30 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>MODE(C8:F8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>IF(AND(H8=1, A8=F8), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>7</v>
       </c>
@@ -483,13 +632,30 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>MODE(C9:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>IF(AND(H9=1, A9=F9), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>8</v>
       </c>
@@ -497,13 +663,30 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>MODE(C10:F10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>IF(AND(H10=1, A10=F10), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>9</v>
       </c>
@@ -511,13 +694,30 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>MODE(C11:F11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>IF(AND(H11=1, A11=F11), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10</v>
       </c>
@@ -525,13 +725,30 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>MODE(C12:F12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>IF(AND(H12=1, A12=F12), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>11</v>
       </c>
@@ -539,13 +756,30 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>MODE(C13:F13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>IF(AND(H13=1, A13=F13), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>12</v>
       </c>
@@ -553,13 +787,30 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>MODE(C14:F14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>IF(AND(H14=1, A14=F14), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>13</v>
       </c>
@@ -567,13 +818,30 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>MODE(C15:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>IF(AND(H15=1, A15=F15), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>14</v>
       </c>
@@ -586,8 +854,25 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>MODE(C16:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>IF(AND(H16=1, A16=F16), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>15</v>
       </c>
@@ -600,8 +885,25 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>MODE(C17:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>IF(AND(H17=1, A17=F17), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>16</v>
       </c>
@@ -614,8 +916,25 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>MODE(C18:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>IF(AND(H18=1, A18=F18), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>17</v>
       </c>
@@ -628,8 +947,25 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>MODE(C19:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>IF(AND(H19=1, A19=F19), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>18</v>
       </c>
@@ -642,8 +978,25 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>MODE(C20:F20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(AND(H20=1, A20=F20), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>19</v>
       </c>
@@ -656,8 +1009,25 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>MODE(C21:F21)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>IF(AND(H21=1, A21=F21), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>20</v>
       </c>
@@ -670,8 +1040,25 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>MODE(C22:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>IF(AND(H22=1, A22=F22), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>21</v>
       </c>
@@ -684,8 +1071,25 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>MODE(C23:F23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IF(AND(H23=1, A23=F23), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>22</v>
       </c>
@@ -698,8 +1102,25 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>MODE(C24:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>IF(AND(H24=1, A24=F24), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>23</v>
       </c>
@@ -712,8 +1133,25 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>MODE(C25:F25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>IF(AND(H25=1, A25=F25), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>24</v>
       </c>
@@ -726,8 +1164,25 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>MODE(C26:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>IF(AND(H26=1, A26=F26), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>25</v>
       </c>
@@ -740,8 +1195,25 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>MODE(C27:F27)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>IF(AND(H27=1, A27=F27), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>26</v>
       </c>
@@ -754,8 +1226,25 @@
       <c r="D28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>MODE(C28:F28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>IF(AND(H28=1, A28=F28), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>27</v>
       </c>
@@ -768,8 +1257,25 @@
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>MODE(C29:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>IF(AND(H29=1, A29=F29), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>28</v>
       </c>
@@ -782,8 +1288,25 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>MODE(C30:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>IF(AND(H30=1, A30=F30), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>29</v>
       </c>
@@ -796,8 +1319,25 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>MODE(C31:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>IF(AND(H31=1, A31=F31), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>30</v>
       </c>
@@ -810,8 +1350,25 @@
       <c r="D32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>MODE(C32:F32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>IF(AND(H32=1, A32=F32), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>31</v>
       </c>
@@ -824,8 +1381,25 @@
       <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>MODE(C33:F33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>IF(AND(H33=1, A33=F33), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>32</v>
       </c>
@@ -838,8 +1412,25 @@
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>MODE(C34:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>IF(AND(H34=1, A34=F34), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>33</v>
       </c>
@@ -852,8 +1443,25 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>MODE(C35:F35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>IF(AND(H35=1, A35=F35), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>34</v>
       </c>
@@ -866,8 +1474,25 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>MODE(C36:F36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>IF(AND(H36=1, A36=F36), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>35</v>
       </c>
@@ -880,8 +1505,25 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>MODE(C37:F37)</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>IF(AND(H37=1, A37=F37), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>36</v>
       </c>
@@ -894,8 +1536,25 @@
       <c r="D38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>MODE(C38:F38)</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>IF(AND(H38=1, A38=F38), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>37</v>
       </c>
@@ -908,8 +1567,25 @@
       <c r="D39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>MODE(C39:F39)</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>IF(AND(H39=1, A39=F39), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>38</v>
       </c>
@@ -922,8 +1598,25 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>MODE(C40:F40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>IF(AND(H40=1, A40=F40), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>39</v>
       </c>
@@ -936,8 +1629,25 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>MODE(C41:F41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>IF(AND(H41=1, A41=F41), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>40</v>
       </c>
@@ -950,8 +1660,25 @@
       <c r="D42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>MODE(C42:F42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>IF(AND(H42=1, A42=F42), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>41</v>
       </c>
@@ -964,8 +1691,25 @@
       <c r="D43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>MODE(C43:F43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>IF(AND(H43=1, A43=F43), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>42</v>
       </c>
@@ -978,8 +1722,25 @@
       <c r="D44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>MODE(C44:F44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>IF(AND(H44=1, A44=F44), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>43</v>
       </c>
@@ -992,8 +1753,25 @@
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>MODE(C45:F45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>IF(AND(H45=1, A45=F45), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1006,8 +1784,25 @@
       <c r="D46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>MODE(C46:F46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>IF(AND(H46=1, A46=F46), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1020,8 +1815,25 @@
       <c r="D47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>MODE(C47:F47)</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>IF(AND(H47=1, A47=F47), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1034,8 +1846,25 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>MODE(C48:F48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>IF(AND(H48=1, A48=F48), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1048,8 +1877,25 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>MODE(C49:F49)</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>IF(AND(H49=1, A49=F49), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1062,8 +1908,25 @@
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>MODE(C50:F50)</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>IF(AND(H50=1, A50=F50), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1076,8 +1939,25 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>MODE(C51:F51)</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>IF(AND(H51=1, A51=F51), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1090,41 +1970,92 @@
       <c r="D52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>MODE(C52:F52)</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>IF(AND(H52=1, A52=F52), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>MODE(C53:F53)</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>IF(AND(H53=1, A53=F53), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>MODE(C54:F54)</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>IF(AND(H54=1, A54=F54), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1132,13 +2063,30 @@
       <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>MODE(C55:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>IF(AND(H55=1, A55=F55), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1146,8 +2094,25 @@
       <c r="D56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>MODE(C56:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>IF(AND(H56=1, A56=F56), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1160,8 +2125,25 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>MODE(C57:F57)</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>IF(AND(H57=1, A57=F57), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1174,8 +2156,25 @@
       <c r="D58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>MODE(C58:F58)</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>IF(AND(H58=1, A58=F58), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1188,8 +2187,25 @@
       <c r="D59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>MODE(C59:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>IF(AND(H59=1, A59=F59), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1202,8 +2218,25 @@
       <c r="D60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>MODE(C60:F60)</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>IF(AND(H60=1, A60=F60), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1216,8 +2249,25 @@
       <c r="D61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>MODE(C61:F61)</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>IF(AND(H61=1, A61=F61), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1230,8 +2280,25 @@
       <c r="D62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>MODE(C62:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>IF(AND(H62=1, A62=F62), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1239,13 +2306,30 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <f>MODE(C63:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>IF(AND(H63=1, A63=F63), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1253,13 +2337,30 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>MODE(C64:F64)</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>IF(AND(H64=1, A64=F64), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1267,13 +2368,30 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>MODE(C65:F65)</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>IF(AND(H65=1, A65=F65), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1281,13 +2399,30 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>MODE(C66:F66)</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>IF(AND(H66=1, A66=F66), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1295,13 +2430,30 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>MODE(C67:F67)</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>IF(AND(H67=1, A67=F67), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1309,13 +2461,30 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>MODE(C68:F68)</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>IF(AND(H68=1, A68=F68), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1323,13 +2492,30 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f>MODE(C69:F69)</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>IF(AND(H69=1, A69=F69), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1337,13 +2523,30 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>MODE(C70:F70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>IF(AND(H70=1, A70=F70), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1351,13 +2554,30 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>MODE(C71:F71)</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>IF(AND(H71=1, A71=F71), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1365,13 +2585,30 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>MODE(C72:F72)</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>IF(AND(H72=1, A72=F72), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1379,13 +2616,30 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>MODE(C73:F73)</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>IF(AND(H73=1, A73=F73), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1393,13 +2647,30 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>MODE(C74:F74)</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>IF(AND(H74=1, A74=F74), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1407,13 +2678,30 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>MODE(C75:F75)</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>IF(AND(H75=1, A75=F75), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1426,8 +2714,25 @@
       <c r="D76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>MODE(C76:F76)</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>IF(AND(H76=1, A76=F76), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1440,8 +2745,25 @@
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>MODE(C77:F77)</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>IF(AND(H77=1, A77=F77), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1454,8 +2776,25 @@
       <c r="D78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>MODE(C78:F78)</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>IF(AND(H78=1, A78=F78), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1468,8 +2807,25 @@
       <c r="D79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>MODE(C79:F79)</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>IF(AND(H79=1, A79=F79), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1482,8 +2838,25 @@
       <c r="D80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>MODE(C80:F80)</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>IF(AND(H80=1, A80=F80), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1496,8 +2869,25 @@
       <c r="D81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>MODE(C81:F81)</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>IF(AND(H81=1, A81=F81), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1510,8 +2900,25 @@
       <c r="D82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>MODE(C82:F82)</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>IF(AND(H82=1, A82=F82), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1524,8 +2931,25 @@
       <c r="D83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>MODE(C83:F83)</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>IF(AND(H83=1, A83=F83), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1538,8 +2962,25 @@
       <c r="D84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>MODE(C84:F84)</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>IF(AND(H84=1, A84=F84), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1552,8 +2993,25 @@
       <c r="D85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>MODE(C85:F85)</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>IF(AND(H85=1, A85=F85), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1566,8 +3024,25 @@
       <c r="D86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>MODE(C86:F86)</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>IF(AND(H86=1, A86=F86), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1580,8 +3055,25 @@
       <c r="D87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>MODE(C87:F87)</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>IF(AND(H87=1, A87=F87), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1594,8 +3086,25 @@
       <c r="D88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>MODE(C88:F88)</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>IF(AND(H88=1, A88=F88), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1608,8 +3117,25 @@
       <c r="D89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>MODE(C89:F89)</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>IF(AND(H89=1, A89=F89), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1622,8 +3148,25 @@
       <c r="D90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>MODE(C90:F90)</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>IF(AND(H90=1, A90=F90), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1636,8 +3179,25 @@
       <c r="D91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>MODE(C91:F91)</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>IF(AND(H91=1, A91=F91), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1650,8 +3210,25 @@
       <c r="D92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>MODE(C92:F92)</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>IF(AND(H92=1, A92=F92), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1664,8 +3241,25 @@
       <c r="D93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>MODE(C93:F93)</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>IF(AND(H93=1, A93=F93), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1678,8 +3272,25 @@
       <c r="D94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>MODE(C94:F94)</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>IF(AND(H94=1, A94=F94), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1692,8 +3303,25 @@
       <c r="D95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>MODE(C95:F95)</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>IF(AND(H95=1, A95=F95), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1706,8 +3334,25 @@
       <c r="D96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>MODE(C96:F96)</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>IF(AND(H96=1, A96=F96), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1720,8 +3365,25 @@
       <c r="D97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>MODE(C97:F97)</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>IF(AND(H97=1, A97=F97), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1734,8 +3396,25 @@
       <c r="D98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>MODE(C98:F98)</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>IF(AND(H98=1, A98=F98), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1748,8 +3427,25 @@
       <c r="D99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>MODE(C99:F99)</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>IF(AND(H99=1, A99=F99), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1762,8 +3458,25 @@
       <c r="D100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>MODE(C100:F100)</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>IF(AND(H100=1, A100=F100), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1776,8 +3489,25 @@
       <c r="D101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <f>MODE(C101:F101)</f>
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <f>IF(AND(H101=1, A101=F101), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1789,6 +3519,643 @@
       </c>
       <c r="D102">
         <v>1</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <f>MODE(C102:F102)</f>
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <f>IF(AND(H102=1, A102=F102), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <f>MODE(C103:F103)</f>
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f>IF(AND(H103=1, A103=F103), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <f>MODE(C104:F104)</f>
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <f>IF(AND(H104=1, A104=F104), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <f>MODE(C105:F105)</f>
+        <v>0</v>
+      </c>
+      <c r="I105">
+        <f>IF(AND(H105=1, A105=F105), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <f>MODE(C106:F106)</f>
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f>IF(AND(H106=1, A106=F106), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f>MODE(C107:F107)</f>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f>IF(AND(H107=1, A107=F107), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <f>MODE(C108:F108)</f>
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <f>IF(AND(H108=1, A108=F108), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <f>MODE(C109:F109)</f>
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <f>IF(AND(H109=1, A109=F109), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <f>MODE(C110:F110)</f>
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f>IF(AND(H110=1, A110=F110), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <f>MODE(C111:F111)</f>
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f>IF(AND(H111=1, A111=F111), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <f>MODE(C112:F112)</f>
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f>IF(AND(H112=1, A112=F112), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <f>MODE(C113:F113)</f>
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f>IF(AND(H113=1, A113=F113), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <f>MODE(C114:F114)</f>
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f>IF(AND(H114=1, A114=F114), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <f>MODE(C115:F115)</f>
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f>IF(AND(H115=1, A115=F115), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <f>MODE(C116:F116)</f>
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f>IF(AND(H116=1, A116=F116), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <f>MODE(C117:F117)</f>
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f>IF(AND(H117=1, A117=F117), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <f>MODE(C118:F118)</f>
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f>IF(AND(H118=1, A118=F118), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <f>MODE(C119:F119)</f>
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <f>IF(AND(H119=1, A119=F119), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <f>MODE(C120:F120)</f>
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f>IF(AND(H120=1, A120=F120), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <f>MODE(C121:F121)</f>
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f>IF(AND(H121=1, A121=F121), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>0</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <f>MODE(C122:F122)</f>
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f>IF(AND(H122=1, A122=F122), 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/shipClassTests/testResults/sensedComp1.xlsx
+++ b/shipClassTests/testResults/sensedComp1.xlsx
@@ -76,8 +76,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,31 +382,31 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -434,7 +437,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <f>IF(AND(H2=1, A2=F2), 1, 0)</f>
+        <f>IF(B2=G2, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -465,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <f>IF(AND(H3=1, A3=F3), 1, 0)</f>
+        <f>IF(B3=G3, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -496,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <f>IF(AND(H4=1, A4=F4), 1, 0)</f>
+        <f>IF(B4=G4, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -514,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -527,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <f>IF(AND(H5=1, A5=F5), 1, 0)</f>
+        <f>IF(B5=G5, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -545,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -558,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <f>IF(AND(H6=1, A6=F6), 1, 0)</f>
+        <f>IF(B6=G6, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -576,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -589,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>IF(AND(H7=1, A7=F7), 1, 0)</f>
+        <f>IF(B7=G7, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -607,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -620,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <f>IF(AND(H8=1, A8=F8), 1, 0)</f>
+        <f>IF(B8=G8, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -638,7 +641,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -651,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <f>IF(AND(H9=1, A9=F9), 1, 0)</f>
+        <f>IF(B9=G9, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -669,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -682,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>IF(AND(H10=1, A10=F10), 1, 0)</f>
+        <f>IF(B10=G10, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -694,13 +697,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -713,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <f>IF(AND(H11=1, A11=F11), 1, 0)</f>
+        <f>IF(B11=G11, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -725,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <f>IF(AND(H12=1, A12=F12), 1, 0)</f>
+        <f>IF(B12=G12, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -756,16 +759,16 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -775,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <f>IF(AND(H13=1, A13=F13), 1, 0)</f>
+        <f>IF(B13=G13, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -787,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <f>IF(AND(H14=1, A14=F14), 1, 0)</f>
+        <f>IF(B14=G14, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -818,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -837,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <f>IF(AND(H15=1, A15=F15), 1, 0)</f>
+        <f>IF(B15=G15, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -855,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -868,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <f>IF(AND(H16=1, A16=F16), 1, 0)</f>
+        <f>IF(B16=G16, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -886,10 +889,10 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -899,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <f>IF(AND(H17=1, A17=F17), 1, 0)</f>
+        <f>IF(B17=G17, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -917,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -930,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <f>IF(AND(H18=1, A18=F18), 1, 0)</f>
+        <f>IF(B18=G18, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -948,10 +951,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -961,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <f>IF(AND(H19=1, A19=F19), 1, 0)</f>
+        <f>IF(B19=G19, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -979,10 +982,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -992,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <f>IF(AND(H20=1, A20=F20), 1, 0)</f>
+        <f>IF(B20=G20, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1010,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <f>IF(AND(H21=1, A21=F21), 1, 0)</f>
+        <f>IF(B21=G21, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1041,10 +1044,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f>IF(AND(H22=1, A22=F22), 1, 0)</f>
+        <f>IF(B22=G22, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1072,10 +1075,10 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <f>IF(AND(H23=1, A23=F23), 1, 0)</f>
+        <f>IF(B23=G23, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1103,10 +1106,10 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1116,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <f>IF(AND(H24=1, A24=F24), 1, 0)</f>
+        <f>IF(B24=G24, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1134,10 +1137,10 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1147,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <f>IF(AND(H25=1, A25=F25), 1, 0)</f>
+        <f>IF(B25=G25, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1165,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1178,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <f>IF(AND(H26=1, A26=F26), 1, 0)</f>
+        <f>IF(B26=G26, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1196,10 +1199,10 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1209,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <f>IF(AND(H27=1, A27=F27), 1, 0)</f>
+        <f>IF(B27=G27, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1227,10 +1230,10 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1240,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <f>IF(AND(H28=1, A28=F28), 1, 0)</f>
+        <f>IF(B28=G28, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1258,10 +1261,10 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1271,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <f>IF(AND(H29=1, A29=F29), 1, 0)</f>
+        <f>IF(B29=G29, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1289,10 +1292,10 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -1302,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <f>IF(AND(H30=1, A30=F30), 1, 0)</f>
+        <f>IF(B30=G30, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1320,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="I31">
-        <f>IF(AND(H31=1, A31=F31), 1, 0)</f>
+        <f>IF(B31=G31, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1351,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -1364,7 +1367,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <f>IF(AND(H32=1, A32=F32), 1, 0)</f>
+        <f>IF(B32=G32, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1382,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1395,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <f>IF(AND(H33=1, A33=F33), 1, 0)</f>
+        <f>IF(B33=G33, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1413,10 +1416,10 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1426,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <f>IF(AND(H34=1, A34=F34), 1, 0)</f>
+        <f>IF(B34=G34, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1444,10 +1447,10 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1457,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <f>IF(AND(H35=1, A35=F35), 1, 0)</f>
+        <f>IF(B35=G35, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1475,10 +1478,10 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1488,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <f>IF(AND(H36=1, A36=F36), 1, 0)</f>
+        <f>IF(B36=G36, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1506,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1519,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <f>IF(AND(H37=1, A37=F37), 1, 0)</f>
+        <f>IF(B37=G37, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1537,10 +1540,10 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1550,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <f>IF(AND(H38=1, A38=F38), 1, 0)</f>
+        <f>IF(B38=G38, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1568,10 +1571,10 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1581,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <f>IF(AND(H39=1, A39=F39), 1, 0)</f>
+        <f>IF(B39=G39, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1599,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <f>IF(AND(H40=1, A40=F40), 1, 0)</f>
+        <f>IF(B40=G40, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1630,10 +1633,10 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1643,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <f>IF(AND(H41=1, A41=F41), 1, 0)</f>
+        <f>IF(B41=G41, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1661,10 +1664,10 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -1674,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <f>IF(AND(H42=1, A42=F42), 1, 0)</f>
+        <f>IF(B42=G42, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1692,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -1705,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <f>IF(AND(H43=1, A43=F43), 1, 0)</f>
+        <f>IF(B43=G43, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1723,10 +1726,10 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -1736,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <f>IF(AND(H44=1, A44=F44), 1, 0)</f>
+        <f>IF(B44=G44, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1754,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -1767,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f>IF(AND(H45=1, A45=F45), 1, 0)</f>
+        <f>IF(B45=G45, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1785,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -1798,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f>IF(AND(H46=1, A46=F46), 1, 0)</f>
+        <f>IF(B46=G46, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1816,10 +1819,10 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -1829,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <f>IF(AND(H47=1, A47=F47), 1, 0)</f>
+        <f>IF(B47=G47, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1847,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -1860,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <f>IF(AND(H48=1, A48=F48), 1, 0)</f>
+        <f>IF(B48=G48, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1878,10 +1881,10 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f>IF(AND(H49=1, A49=F49), 1, 0)</f>
+        <f>IF(B49=G49, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1909,10 +1912,10 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -1922,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <f>IF(AND(H50=1, A50=F50), 1, 0)</f>
+        <f>IF(B50=G50, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1940,10 +1943,10 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -1953,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <f>IF(AND(H51=1, A51=F51), 1, 0)</f>
+        <f>IF(B51=G51, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1971,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -1984,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <f>IF(AND(H52=1, A52=F52), 1, 0)</f>
+        <f>IF(B52=G52, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2002,10 +2005,10 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <f>IF(AND(H53=1, A53=F53), 1, 0)</f>
+        <f>IF(B53=G53, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2033,10 +2036,10 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <f>IF(AND(H54=1, A54=F54), 1, 0)</f>
+        <f>IF(B54=G54, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2064,10 +2067,10 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -2077,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <f>IF(AND(H55=1, A55=F55), 1, 0)</f>
+        <f>IF(B55=G55, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2095,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <f>IF(AND(H56=1, A56=F56), 1, 0)</f>
+        <f>IF(B56=G56, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2126,10 +2129,10 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -2139,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <f>IF(AND(H57=1, A57=F57), 1, 0)</f>
+        <f>IF(B57=G57, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2157,10 +2160,10 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -2170,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <f>IF(AND(H58=1, A58=F58), 1, 0)</f>
+        <f>IF(B58=G58, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2188,10 +2191,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -2201,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <f>IF(AND(H59=1, A59=F59), 1, 0)</f>
+        <f>IF(B59=G59, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2219,10 +2222,10 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -2232,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <f>IF(AND(H60=1, A60=F60), 1, 0)</f>
+        <f>IF(B60=G60, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2250,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -2263,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="I61">
-        <f>IF(AND(H61=1, A61=F61), 1, 0)</f>
+        <f>IF(B61=G61, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2281,10 +2284,10 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -2294,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <f>IF(AND(H62=1, A62=F62), 1, 0)</f>
+        <f>IF(B62=G62, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2325,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <f>IF(AND(H63=1, A63=F63), 1, 0)</f>
+        <f>IF(B63=G63, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2356,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <f>IF(AND(H64=1, A64=F64), 1, 0)</f>
+        <f>IF(B64=G64, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2387,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <f>IF(AND(H65=1, A65=F65), 1, 0)</f>
+        <f>IF(B65=G65, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2405,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2418,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <f>IF(AND(H66=1, A66=F66), 1, 0)</f>
+        <f>IF(B66=G66, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2449,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <f>IF(AND(H67=1, A67=F67), 1, 0)</f>
+        <f>IF(B67=G67, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2467,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -2480,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <f>IF(AND(H68=1, A68=F68), 1, 0)</f>
+        <f>IF(B68=G68, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2498,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2511,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <f>IF(AND(H69=1, A69=F69), 1, 0)</f>
+        <f>IF(B69=G69, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2529,7 +2532,7 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -2542,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <f>IF(AND(H70=1, A70=F70), 1, 0)</f>
+        <f>IF(B70=G70, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2554,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2573,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <f>IF(AND(H71=1, A71=F71), 1, 0)</f>
+        <f>IF(B71=G71, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2585,16 +2588,16 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
         <v>0</v>
@@ -2604,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <f>IF(AND(H72=1, A72=F72), 1, 0)</f>
+        <f>IF(B72=G72, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2616,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2635,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <f>IF(AND(H73=1, A73=F73), 1, 0)</f>
+        <f>IF(B73=G73, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2647,16 +2650,16 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -2666,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <f>IF(AND(H74=1, A74=F74), 1, 0)</f>
+        <f>IF(B74=G74, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2678,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
         <v>0</v>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <f>IF(AND(H75=1, A75=F75), 1, 0)</f>
+        <f>IF(B75=G75, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2715,10 +2718,10 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
         <v>0</v>
@@ -2728,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <f>IF(AND(H76=1, A76=F76), 1, 0)</f>
+        <f>IF(B76=G76, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2746,10 +2749,10 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -2759,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <f>IF(AND(H77=1, A77=F77), 1, 0)</f>
+        <f>IF(B77=G77, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2777,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -2790,7 +2793,7 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <f>IF(AND(H78=1, A78=F78), 1, 0)</f>
+        <f>IF(B78=G78, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2808,10 +2811,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -2821,7 +2824,7 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <f>IF(AND(H79=1, A79=F79), 1, 0)</f>
+        <f>IF(B79=G79, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2839,10 +2842,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -2852,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <f>IF(AND(H80=1, A80=F80), 1, 0)</f>
+        <f>IF(B80=G80, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2870,10 +2873,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2883,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <f>IF(AND(H81=1, A81=F81), 1, 0)</f>
+        <f>IF(B81=G81, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2901,10 +2904,10 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2914,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <f>IF(AND(H82=1, A82=F82), 1, 0)</f>
+        <f>IF(B82=G82, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2932,10 +2935,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2945,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <f>IF(AND(H83=1, A83=F83), 1, 0)</f>
+        <f>IF(B83=G83, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2963,10 +2966,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2976,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <f>IF(AND(H84=1, A84=F84), 1, 0)</f>
+        <f>IF(B84=G84, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -2994,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3007,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <f>IF(AND(H85=1, A85=F85), 1, 0)</f>
+        <f>IF(B85=G85, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3025,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -3038,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <f>IF(AND(H86=1, A86=F86), 1, 0)</f>
+        <f>IF(B86=G86, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3056,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
         <v>0</v>
@@ -3069,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <f>IF(AND(H87=1, A87=F87), 1, 0)</f>
+        <f>IF(B87=G87, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3087,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3100,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <f>IF(AND(H88=1, A88=F88), 1, 0)</f>
+        <f>IF(B88=G88, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3118,10 +3121,10 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3131,7 +3134,7 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <f>IF(AND(H89=1, A89=F89), 1, 0)</f>
+        <f>IF(B89=G89, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3149,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <f>IF(AND(H90=1, A90=F90), 1, 0)</f>
+        <f>IF(B90=G90, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3180,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -3193,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <f>IF(AND(H91=1, A91=F91), 1, 0)</f>
+        <f>IF(B91=G91, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3211,10 +3214,10 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -3224,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <f>IF(AND(H92=1, A92=F92), 1, 0)</f>
+        <f>IF(B92=G92, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3242,10 +3245,10 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3255,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <f>IF(AND(H93=1, A93=F93), 1, 0)</f>
+        <f>IF(B93=G93, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3273,10 +3276,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3286,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <f>IF(AND(H94=1, A94=F94), 1, 0)</f>
+        <f>IF(B94=G94, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3304,10 +3307,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3317,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <f>IF(AND(H95=1, A95=F95), 1, 0)</f>
+        <f>IF(B95=G95, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3335,10 +3338,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
         <v>0</v>
@@ -3348,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <f>IF(AND(H96=1, A96=F96), 1, 0)</f>
+        <f>IF(B96=G96, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3366,10 +3369,10 @@
         <v>1</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>0</v>
@@ -3379,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <f>IF(AND(H97=1, A97=F97), 1, 0)</f>
+        <f>IF(B97=G97, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3397,10 +3400,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <f>IF(AND(H98=1, A98=F98), 1, 0)</f>
+        <f>IF(B98=G98, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3428,10 +3431,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -3441,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <f>IF(AND(H99=1, A99=F99), 1, 0)</f>
+        <f>IF(B99=G99, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3459,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -3472,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <f>IF(AND(H100=1, A100=F100), 1, 0)</f>
+        <f>IF(B100=G100, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3490,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>0</v>
@@ -3503,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <f>IF(AND(H101=1, A101=F101), 1, 0)</f>
+        <f>IF(B101=G101, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3521,10 +3524,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -3534,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <f>IF(AND(H102=1, A102=F102), 1, 0)</f>
+        <f>IF(B102=G102, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3552,10 +3555,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -3565,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <f>IF(AND(H103=1, A103=F103), 1, 0)</f>
+        <f>IF(B103=G103, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3583,10 +3586,10 @@
         <v>1</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -3596,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <f>IF(AND(H104=1, A104=F104), 1, 0)</f>
+        <f>IF(B104=G104, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3614,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>0</v>
@@ -3627,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <f>IF(AND(H105=1, A105=F105), 1, 0)</f>
+        <f>IF(B105=G105, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3645,10 +3648,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -3658,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <f>IF(AND(H106=1, A106=F106), 1, 0)</f>
+        <f>IF(B106=G106, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3676,10 +3679,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -3689,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <f>IF(AND(H107=1, A107=F107), 1, 0)</f>
+        <f>IF(B107=G107, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3707,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -3720,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <f>IF(AND(H108=1, A108=F108), 1, 0)</f>
+        <f>IF(B108=G108, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3738,10 +3741,10 @@
         <v>1</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -3751,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <f>IF(AND(H109=1, A109=F109), 1, 0)</f>
+        <f>IF(B109=G109, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3769,10 +3772,10 @@
         <v>1</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -3782,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <f>IF(AND(H110=1, A110=F110), 1, 0)</f>
+        <f>IF(B110=G110, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3800,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3813,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="I111">
-        <f>IF(AND(H111=1, A111=F111), 1, 0)</f>
+        <f>IF(B111=G111, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3831,10 +3834,10 @@
         <v>1</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3844,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="I112">
-        <f>IF(AND(H112=1, A112=F112), 1, 0)</f>
+        <f>IF(B112=G112, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3862,10 +3865,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3875,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="I113">
-        <f>IF(AND(H113=1, A113=F113), 1, 0)</f>
+        <f>IF(B113=G113, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3893,10 +3896,10 @@
         <v>1</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3906,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I114">
-        <f>IF(AND(H114=1, A114=F114), 1, 0)</f>
+        <f>IF(B114=G114, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3924,10 +3927,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3937,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="I115">
-        <f>IF(AND(H115=1, A115=F115), 1, 0)</f>
+        <f>IF(B115=G115, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3955,10 +3958,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3968,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="I116">
-        <f>IF(AND(H116=1, A116=F116), 1, 0)</f>
+        <f>IF(B116=G116, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3986,10 +3989,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3999,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="I117">
-        <f>IF(AND(H117=1, A117=F117), 1, 0)</f>
+        <f>IF(B117=G117, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4017,10 +4020,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -4030,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="I118">
-        <f>IF(AND(H118=1, A118=F118), 1, 0)</f>
+        <f>IF(B118=G118, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4048,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -4061,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="I119">
-        <f>IF(AND(H119=1, A119=F119), 1, 0)</f>
+        <f>IF(B119=G119, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4079,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -4092,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="I120">
-        <f>IF(AND(H120=1, A120=F120), 1, 0)</f>
+        <f>IF(B120=G120, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4110,10 +4113,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4123,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="I121">
-        <f>IF(AND(H121=1, A121=F121), 1, 0)</f>
+        <f>IF(B121=G121, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4141,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4154,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <f>IF(AND(H122=1, A122=F122), 1, 0)</f>
+        <f>IF(B122=G122, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
